--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F577FB2-3371-4EE1-BCF8-053D423CB48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B7508-2032-449E-A3A1-D29385663CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Release_1.0.1</t>
+    <t>1.0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -419,58 +419,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B7508-2032-449E-A3A1-D29385663CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19589CF-24DC-4F21-BE8D-29E02EB357D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release_1.0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Release_1.0.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>更新日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,42 @@
   </si>
   <si>
     <t>1.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、前期部分关卡怪物属性数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、失败后可跳过失败结局；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、部分内功在随机奖励池中的概率调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、商店中不在出售道具“麻绳”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、战斗内部插件，将记录上次选择的战斗加速倍数；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复侠客天赋在达到上限（5个）数量时，继续学习天赋会错误的将该天赋消耗掉；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、部分内功增加的属性数值调整；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,4 +515,90 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB15BC9-C0AF-4290-A335-8F8E19F0E023}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="xiaozhuaaa"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4940EAE-B1E7-4DCC-AC45-BCC56971460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Release_1.0.1" sheetId="1" r:id="rId4"/>
-    <sheet name="Release_1.0.2" sheetId="2" r:id="rId5"/>
+    <sheet name="Release_1.0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Release_1.0.2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1761229758" val="1228" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -71,9 +76,6 @@
     <t>1.0.2</t>
   </si>
   <si>
-    <t>1、修复侠客内功，招式，天赋等达到上限后仍能继续学习，但是没有生效的问题</t>
-  </si>
-  <si>
     <t>1、前期部分关卡怪物属性数值调整；</t>
   </si>
   <si>
@@ -90,124 +92,78 @@
   </si>
   <si>
     <t>6、战斗内部插件，将记录本次游戏选择的战斗加速倍数；</t>
+  </si>
+  <si>
+    <t>1、修复侠客内功，招式，天赋等达到上限后仍能继续学习，但是没有生效的问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;¥&quot;;\-#,##0\ &quot;¥&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;¥&quot;;[Red]\-#,##0\ &quot;¥&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;¥&quot;;\-#,##0.00\ &quot;¥&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;¥&quot;;[Red]\-#,##0.00\ &quot;¥&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;¥&quot;_-;\-* #,##0\ &quot;¥&quot;_-;_-* &quot;-&quot;\ &quot;¥&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _¥_-;\-* #,##0\ _¥_-;_-* &quot;-&quot;\ _¥_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1761229758" ulstyle="none" kern="1">
-            <pm:latin face="等线" sz="220" lang="default"/>
-            <pm:cs face="Times New Roman" sz="220" lang="default"/>
-            <pm:ea face="SimSun" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1761229758" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1761229758" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1761229758"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1761229758"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1761229758" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
@@ -472,100 +428,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1761229758" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1761229758" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1761229758" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1761229758" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1761229758" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1761229758" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -578,105 +518,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1761229758" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1761229758" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1761229758" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1761229758" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1761229758" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1761229758" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4940EAE-B1E7-4DCC-AC45-BCC56971460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FB543-D567-4372-B92C-491008288458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release_1.0.1" sheetId="1" r:id="rId1"/>
     <sheet name="Release_1.0.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Release_1.0.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>更新日期</t>
   </si>
@@ -95,6 +96,18 @@
   </si>
   <si>
     <t>1、修复侠客内功，招式，天赋等达到上限后仍能继续学习，但是没有生效的问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.11.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、内容新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,4 +623,81 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2868F6-36F2-4CB0-8DB1-093255C65D9B}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FB543-D567-4372-B92C-491008288458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B090E4F-2B90-4F0B-8340-F525C6CD64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Release_1.0.1" sheetId="1" r:id="rId1"/>
     <sheet name="Release_1.0.2" sheetId="2" r:id="rId2"/>
     <sheet name="Release_1.0.3" sheetId="3" r:id="rId3"/>
+    <sheet name="Release_1.0.4" sheetId="4" r:id="rId4"/>
+    <sheet name="Release_1.0.5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>更新日期</t>
   </si>
@@ -107,15 +109,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三、内容新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1、部分内功、天赋，随机奖励池中的概率调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、部分内功每级提升、满级增加的属性数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、部分道具增加的属性数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、内容优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、部分侠客初始天赋的属性数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、部分招式的数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋、招式属性数值调整为主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮怪物的天赋搭配增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客通用天赋、怪物通用天赋增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,6 +174,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -445,7 +486,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +576,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,77 +668,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2868F6-36F2-4CB0-8DB1-093255C65D9B}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553A278B-C936-41D2-B772-FFCC938B23B3}">
+  <dimension ref="F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A87BE7-B584-4731-A3D3-AF79612D8D57}">
+  <dimension ref="F18:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B090E4F-2B90-4F0B-8340-F525C6CD64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20102C43-929D-451F-920F-633938375C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>更新日期</t>
   </si>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>侠客通用天赋、怪物通用天赋增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客大类型的随机概率降低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型中的初级、中级、高级属性分配比例从新调整</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +679,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,10 +749,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553A278B-C936-41D2-B772-FFCC938B23B3}">
-  <dimension ref="F18"/>
+  <dimension ref="F18:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -752,6 +760,16 @@
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20102C43-929D-451F-920F-633938375C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852940C6-6DBD-4170-958D-A08F5795B5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>更新日期</t>
   </si>
@@ -151,6 +151,18 @@
   <si>
     <t>属性类型中的初级、中级、高级属性分配比例从新调整</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、BUG修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复侠客史义的武器招式类型错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、修复侠客荆棘的武器招式类型中没有剑的错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2868F6-36F2-4CB0-8DB1-093255C65D9B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,32 +723,47 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
+++ b/Design/日常文档/侠客风云传MOD_肉鸽挑战_更新日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Design\日常文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852940C6-6DBD-4170-958D-A08F5795B5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68601FA2-C8D6-41E0-957E-BF693706ACCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>更新日期</t>
   </si>
@@ -109,23 +109,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、部分内功、天赋，随机奖励池中的概率调整；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2、部分内功每级提升、满级增加的属性数值调整；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、部分道具增加的属性数值调整；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一、内容优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、部分侠客初始天赋的属性数值调整；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,6 +150,22 @@
   </si>
   <si>
     <t>2、修复侠客荆棘的武器招式类型中没有剑的错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、部分内功、天赋，在随机奖励池中的概率调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、部分道具增加的属性数值调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、部分内功的效果调整；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、部分侠客初始天赋的属性数值和效果调整；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,10 +692,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2868F6-36F2-4CB0-8DB1-093255C65D9B}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,48 +727,53 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -786,17 +795,17 @@
   <sheetData>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -817,12 +826,12 @@
   <sheetData>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
